--- a/Message Code とテストケース一覧.xlsx
+++ b/Message Code とテストケース一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\RegistryPolCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50C929B-B1FA-4541-B3E6-6E8AD96F81E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDCAE00-3C43-4DB6-A568-CDA52B8A2FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="テストケース一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <r>
       <t xml:space="preserve">很好，你现在的代码已经比较完善了 👍。我帮你整理了一份 </t>
@@ -88,15 +89,9 @@
     <t>意味</t>
   </si>
   <si>
-    <t>E00000</t>
-  </si>
-  <si>
     <t>INFO</t>
   </si>
   <si>
-    <t>正常処理（検査開始／終了、正常結果、バックアップ作成、削除成功など）</t>
-  </si>
-  <si>
     <t>E01001</t>
   </si>
   <si>
@@ -154,9 +149,6 @@
     <t>Registry.pol に異常を検出（サマリー通知用）</t>
   </si>
   <si>
-    <t>🧪 テストケース一覧（日本語）</t>
-  </si>
-  <si>
     <t>1. 正常系テスト</t>
   </si>
   <si>
@@ -188,21 +180,6 @@
   </si>
   <si>
     <t>2. 本日分のバックアップが既に存在する場合</t>
-  </si>
-  <si>
-    <r>
-      <t>E00000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（検査正常）</t>
-    </r>
   </si>
   <si>
     <t>「本日のバックアップは既に存在」が出力され、コピーは行われない</t>
@@ -452,13 +429,461 @@
       </rPr>
       <t>，这样你可以直接导入测试管理用表格？</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> テストケース一覧（日本語）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>テスト項目</t>
+  </si>
+  <si>
+    <t>テスト方法</t>
+  </si>
+  <si>
+    <t>確認項目（確認内容・期待結果）</t>
+  </si>
+  <si>
+    <t>正常な Registry.pol ファイルを検出</t>
+  </si>
+  <si>
+    <t>正常なサイズ（例: 数 KB 以上）のファイルを配置し、スクリプトを実行</t>
+  </si>
+  <si>
+    <t>Registry.pol が存在しない場合</t>
+  </si>
+  <si>
+    <t>対象パスから Registry.pol を削除して実行</t>
+  </si>
+  <si>
+    <t>Registry.pol のサイズが 0 の場合</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ログに </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ERROR] [E01002] &lt;対象&gt; Registry.pol 異常（ファイルサイズ 0）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が出力されること</t>
+    </r>
+  </si>
+  <si>
+    <t>1日1回のバックアップ作成</t>
+  </si>
+  <si>
+    <t>正常ファイルを配置し、1回目の実行</t>
+  </si>
+  <si>
+    <r>
+      <t>Backup\YYYYMMDD_HHMMSS_&lt;対象&gt;_Registry.pol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が作成され、ログにバックアップ作成完了の INFO が出力されること</t>
+    </r>
+  </si>
+  <si>
+    <t>同日に複数回実行（既存バックアップあり）</t>
+  </si>
+  <si>
+    <t>同日に2回目以降の実行</t>
+  </si>
+  <si>
+    <r>
+      <t>$MaxBackup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を小さめに設定し、複数回バックアップ実行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">最新 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$MaxBackup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 件のみが残り、それ以前のバックアップは削除されていること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>$LogRetentionDays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を短く設定し、古いログを用意して実行</t>
+    </r>
+  </si>
+  <si>
+    <t>指定日数を超えたログが削除されること</t>
+  </si>
+  <si>
+    <t>検査開始・終了ログ出力</t>
+  </si>
+  <si>
+    <t>任意の Registry.pol を用意し実行</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">実行時に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[INFO] 検査開始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> と </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[INFO] 検査終了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が必ず出力されること</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ログに </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ERROR] [E01001] &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; Registry.pol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異常（ファイル不存在）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が出力されること</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ログに </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[INFO] &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本日のバックアップは既に存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が出力され、新規バックアップが作成されないこと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E09996</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知バッチの実行に失敗しました: $NotifyBat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常処理（検査開始／終了、正常結果、バックアップ作成、削除成功、通知バッチの実行に成功など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I00000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>I00000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（検査正常）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ログに </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[INFO] [I00000] &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; Registry.pol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が出力されること</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・偽の $NotifyBat バッチファイルを作成します。例：
+@echo off
+exit /b 9
+・このファイルが $NotifyBat パス上で呼び出されることを確認してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空ファイルを配置して実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログに以下が出力されること:
+[ERROR] [E09996] 通知バッチの実行に失敗しました。戻り値異常: ExitCode=9
+・正常終了の I00000 メッセージは出ないこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・破損した Registry.pol ファイルを用意する
+（例：バイナリエディタで中身を部分削除、またはランダムデータに書き換え）
+・LGPO.exe /parse /m Registry.pol を実行
+・スクリプトからその戻り値／エラーメッセージを取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログに以下が出力されること:
+[ERROR] [E01003] LGPO.exe による Registry.pol 解析に失敗しました
+・後続処理に進まずエラー終了すること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ世代管理（古いファイル削除）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログの世代管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registry.pol ファイルが破損している場合の LGPO.exe 解析エラー検出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知バッチが存在するが、異常終了コードを返す場合</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,13 +931,55 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -527,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -560,6 +1027,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -840,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D74"/>
+  <dimension ref="B2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -885,218 +1362,224 @@
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1">
       <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1">
       <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="2:4" ht="28.8">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="2:4">
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19"/>
+    <row r="19" spans="2:4" ht="28.8">
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="2:4" ht="22.2">
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="20" spans="2:4">
+      <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="7"/>
+    <row r="21" spans="2:4" ht="22.2">
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B22" s="7"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="9" t="s">
-        <v>30</v>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="11" t="s">
-        <v>32</v>
+      <c r="B25" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="10" t="s">
-        <v>33</v>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="7"/>
+      <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="11" t="s">
-        <v>35</v>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="10" t="s">
-        <v>36</v>
+      <c r="B31" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32"/>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
     </row>
@@ -1110,267 +1593,448 @@
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="2:4" ht="22.2">
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="35" spans="2:4">
+      <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="8" t="s">
-        <v>38</v>
+    <row r="36" spans="2:4" ht="22.2">
+      <c r="B36" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="9" t="s">
-        <v>39</v>
+      <c r="B37" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="7"/>
+      <c r="B39" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="B40" s="7"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="9" t="s">
-        <v>42</v>
+      <c r="B41" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="7"/>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C42"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B43" s="7"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="9" t="s">
-        <v>44</v>
+      <c r="B44" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45"/>
+      <c r="B45" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="2:4" ht="22.2">
-      <c r="B46" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="46" spans="2:4">
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="8" t="s">
-        <v>46</v>
+    <row r="47" spans="2:4" ht="22.2">
+      <c r="B47" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="9" t="s">
-        <v>47</v>
+      <c r="B48" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="7"/>
+      <c r="B50" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C50"/>
       <c r="D50"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B51" s="7"/>
       <c r="C51"/>
       <c r="D51"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="9" t="s">
-        <v>50</v>
+      <c r="B52" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="7"/>
+      <c r="B54" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C54"/>
       <c r="D54"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B55" s="7"/>
       <c r="C55"/>
       <c r="D55"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="9" t="s">
-        <v>53</v>
+      <c r="B56" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58"/>
+      <c r="B58" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="2:4" ht="22.2">
-      <c r="B59" s="6" t="s">
-        <v>54</v>
-      </c>
+    <row r="59" spans="2:4">
+      <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="8" t="s">
-        <v>55</v>
+    <row r="60" spans="2:4" ht="22.2">
+      <c r="B60" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="9" t="s">
-        <v>56</v>
+      <c r="B61" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="11" t="s">
-        <v>57</v>
+      <c r="B63" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="7"/>
+      <c r="B65" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="C65"/>
       <c r="D65"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B66" s="7"/>
       <c r="C66"/>
       <c r="D66"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="9" t="s">
-        <v>60</v>
+      <c r="B67" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="9" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="11" t="s">
-        <v>58</v>
+      <c r="B69" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71"/>
+      <c r="B71" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="C71"/>
       <c r="D71"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
+      <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73"/>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
       <c r="C73"/>
       <c r="D73"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" t="s">
-        <v>63</v>
-      </c>
+      <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE9164F-8813-4410-BE08-F3297A740111}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="5.69921875" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="59.5" customWidth="1"/>
+    <col min="5" max="5" width="65.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18" customHeight="1">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="35.4" customHeight="1">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="34.799999999999997" customHeight="1">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="36.6" customHeight="1">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18" customHeight="1">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" customHeight="1">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="15" customFormat="1" ht="36" customHeight="1">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="15" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="15" customFormat="1" ht="91.8" customHeight="1">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" s="15" customFormat="1" ht="103.8" customHeight="1">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
